--- a/data/atlantic_salmon/params/Population.xlsx
+++ b/data/atlantic_salmon/params/Population.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treimer\Documents\R-temp-files\local_to_global_mariculture_modelling\data\atlantic_salmon\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F11DC35-8A12-4FDD-9A37-B0E6F6C55439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413158B3-1040-4217-810D-EE5AAF1FC29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7596" yWindow="1464" windowWidth="28236" windowHeight="14844" xr2:uid="{480EBA47-7647-41F2-86F2-E9AC7A875918}"/>
+    <workbookView xWindow="11712" yWindow="1176" windowWidth="24396" windowHeight="14844" xr2:uid="{480EBA47-7647-41F2-86F2-E9AC7A875918}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -119,7 +132,7 @@
     <t>SD overprovision of food</t>
   </si>
   <si>
-    <t>%</t>
+    <t>d-1</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1008,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/atlantic_salmon/params/Population.xlsx
+++ b/data/atlantic_salmon/params/Population.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treimer\Documents\R-temp-files\local_to_global_mariculture_modelling\data\atlantic_salmon\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413158B3-1040-4217-810D-EE5AAF1FC29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF947FE7-F4B5-46C6-A691-BF2E43CD05FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11712" yWindow="1176" windowWidth="24396" windowHeight="14844" xr2:uid="{480EBA47-7647-41F2-86F2-E9AC7A875918}"/>
+    <workbookView xWindow="23004" yWindow="684" windowWidth="17916" windowHeight="15600" xr2:uid="{480EBA47-7647-41F2-86F2-E9AC7A875918}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Quantity</t>
   </si>
@@ -47,12 +47,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>meanW</t>
   </si>
   <si>
@@ -62,12 +56,6 @@
     <t>g</t>
   </si>
   <si>
-    <t>https://www.frontiersin.org/journals/marine-science/articles/10.3389/fmars.2023.1094247/full</t>
-  </si>
-  <si>
-    <t>Range of 100-150 given so used a mean of 125 and sd of 10 which over 1000 draws from a normal distribution delivers a minimum and maximum close to these numbers</t>
-  </si>
-  <si>
     <t>deltaW</t>
   </si>
   <si>
@@ -80,38 +68,16 @@
     <t>Ingestion rate average</t>
   </si>
   <si>
-    <t>g/ gfish d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Took the rounded max of values for small seawater growers (80-200g) https://www.fao.org/fileadmin/user_upload/affris/docs/tabl10.pdf?utm_source=chatgpt.com. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* This changes with body size, so I have fitted an nls model to the g/gfish/d recommendations for Atlantic salmon from the FAO (https://www.fao.org/fishery/affris/species-profiles/atlantic-salmon/faqs/en/)
-</t>
-  </si>
-  <si>
     <t>deltaImax</t>
   </si>
   <si>
     <t>Ingestion rate standard deviation</t>
   </si>
   <si>
-    <t>Took the rounded sd of values for small seawater growers (80-200g) https://www.fao.org/fileadmin/user_upload/affris/docs/tabl10.pdf?utm_source=chatgpt.com</t>
-  </si>
-  <si>
-    <t>* this is the model: feed amount (g/gfish/day) = a * BW^b, with a = 15.056186, b =-0.327464</t>
-  </si>
-  <si>
     <t>mortmyt</t>
   </si>
   <si>
     <t>natural mortality rate</t>
-  </si>
-  <si>
-    <t>1/d</t>
-  </si>
-  <si>
-    <t>Alt value: 0.00041 from Tvete et al. 2023 https://doi.org/10.1016/j.prevetmed.2022.105798</t>
   </si>
   <si>
     <t>nruns</t>
@@ -622,11 +588,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1005,21 +968,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A39740-A4A8-480A-A252-470693714487}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="60.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1032,151 +993,118 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2">
         <v>125</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3">
+        <v>7.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4">
+        <v>2.75E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
+      <c r="C5">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="C4">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
       </c>
       <c r="C6">
         <v>5.9979800000000002E-4</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>1.4999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/atlantic_salmon/params/Population.xlsx
+++ b/data/atlantic_salmon/params/Population.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treimer\Documents\R-temp-files\local_to_global_mariculture_modelling\data\atlantic_salmon\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF947FE7-F4B5-46C6-A691-BF2E43CD05FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53878AB0-13F3-4C29-BA3F-B3FB928ABC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23004" yWindow="684" windowWidth="17916" windowHeight="15600" xr2:uid="{480EBA47-7647-41F2-86F2-E9AC7A875918}"/>
+    <workbookView xWindow="12528" yWindow="2340" windowWidth="21540" windowHeight="12120" xr2:uid="{480EBA47-7647-41F2-86F2-E9AC7A875918}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="1" r:id="rId1"/>
@@ -971,7 +971,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1016,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>2.75E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -1044,7 +1044,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>4.4999999999999997E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
